--- a/results/190404/fcfs/results/final view/shorestDis.xlsx
+++ b/results/190404/fcfs/results/final view/shorestDis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RAWSim-O\results\190404\fcfs\results\final view\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB6BD88-966F-49D3-BEF4-B4AEC40AFA48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B7FB7-B525-41E4-B1AE-D4ABB2AD75F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0F71FF03-5D3D-4028-A75F-3B0EA75FAB49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{0F71FF03-5D3D-4028-A75F-3B0EA75FAB49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sum" sheetId="10" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,19 +184,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -311,7 +317,7 @@
             <c:numRef>
               <c:f>'O100'!$L$2:$L$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>7832.5995440303996</c:v>
@@ -393,7 +399,7 @@
             <c:numRef>
               <c:f>'O100'!$J$2:$J$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>467.69467208049201</c:v>
@@ -461,7 +467,7 @@
             <c:numRef>
               <c:f>'O100'!$K$2:$K$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1057.38544160621</c:v>
@@ -529,7 +535,7 @@
             <c:numRef>
               <c:f>'O100'!$M$2:$M$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2106.5920000000001</c:v>
@@ -635,7 +641,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -677,7 +683,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -902,7 +908,7 @@
             <c:numRef>
               <c:f>'O100'!$L$2:$L$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>7832.5995440303996</c:v>
@@ -984,7 +990,7 @@
             <c:numRef>
               <c:f>'O100'!$J$2:$J$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>467.69467208049201</c:v>
@@ -1052,7 +1058,7 @@
             <c:numRef>
               <c:f>'O100'!$K$2:$K$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1057.38544160621</c:v>
@@ -1120,7 +1126,7 @@
             <c:numRef>
               <c:f>'O100'!$M$2:$M$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2106.5920000000001</c:v>
@@ -1226,7 +1232,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1268,7 +1274,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1493,7 +1499,7 @@
             <c:numRef>
               <c:f>'O100'!$L$2:$L$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>7832.5995440303996</c:v>
@@ -1575,7 +1581,7 @@
             <c:numRef>
               <c:f>'O100'!$J$2:$J$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>467.69467208049201</c:v>
@@ -1643,7 +1649,7 @@
             <c:numRef>
               <c:f>'O100'!$K$2:$K$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1057.38544160621</c:v>
@@ -1711,7 +1717,7 @@
             <c:numRef>
               <c:f>'O100'!$M$2:$M$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2106.5920000000001</c:v>
@@ -1817,7 +1823,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1859,7 +1865,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2084,7 +2090,7 @@
             <c:numRef>
               <c:f>'O100'!$L$2:$L$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>7832.5995440303996</c:v>
@@ -2166,7 +2172,7 @@
             <c:numRef>
               <c:f>'O100'!$J$2:$J$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>467.69467208049201</c:v>
@@ -2234,7 +2240,7 @@
             <c:numRef>
               <c:f>'O100'!$K$2:$K$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1057.38544160621</c:v>
@@ -2302,7 +2308,7 @@
             <c:numRef>
               <c:f>'O100'!$M$2:$M$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2106.5920000000001</c:v>
@@ -2408,7 +2414,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2450,7 +2456,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2675,7 +2681,7 @@
             <c:numRef>
               <c:f>'O100'!$L$2:$L$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>7832.5995440303996</c:v>
@@ -2757,7 +2763,7 @@
             <c:numRef>
               <c:f>'O100'!$J$2:$J$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>467.69467208049201</c:v>
@@ -2825,7 +2831,7 @@
             <c:numRef>
               <c:f>'O100'!$K$2:$K$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1057.38544160621</c:v>
@@ -2893,7 +2899,7 @@
             <c:numRef>
               <c:f>'O100'!$M$2:$M$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2106.5920000000001</c:v>
@@ -2999,7 +3005,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3041,7 +3047,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7489,8 +7495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750783EA-E8ED-404B-A3EF-92CBA14F4A7F}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7500,9 +7506,11 @@
     <col min="3" max="3" width="15.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="9" width="9.140625" style="1"/>
+    <col min="10" max="11" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -7528,16 +7536,16 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7560,19 +7568,19 @@
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="17">
         <f>B7</f>
         <v>386.98828661566398</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="17">
         <f t="shared" ref="K2:M2" si="0">C7</f>
         <v>497.25821296836398</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="17">
         <f t="shared" si="0"/>
         <v>3512.4483203848999</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="17">
         <f t="shared" si="0"/>
         <v>1005.236</v>
       </c>
@@ -7596,19 +7604,19 @@
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="17">
         <f>B16</f>
         <v>382.53804528165</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="17">
         <f t="shared" ref="K3:M3" si="1">C16</f>
         <v>493.28913554612899</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="17">
         <f t="shared" si="1"/>
         <v>6023.8670019378997</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="17">
         <f t="shared" si="1"/>
         <v>994.62800000000004</v>
       </c>
@@ -7632,19 +7640,19 @@
       <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="17">
         <f>B25</f>
         <v>354.25462920138398</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="17">
         <f t="shared" ref="K4:M4" si="2">C25</f>
         <v>428.83557489486202</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="17">
         <f>D25</f>
         <v>6796.5317913182898</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="17">
         <f t="shared" si="2"/>
         <v>897.32933333333301</v>
       </c>
@@ -8026,7 +8034,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E26"/>
+      <selection activeCell="J1" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8038,10 +8046,10 @@
     <col min="5" max="5" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="16.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="13" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -8068,16 +8076,16 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8100,19 +8108,19 @@
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="17">
         <f>B7</f>
         <v>467.69467208049201</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="17">
         <f t="shared" ref="K2:M2" si="0">C7</f>
         <v>1057.38544160621</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="17">
         <f t="shared" si="0"/>
         <v>7832.5995440303996</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="17">
         <f t="shared" si="0"/>
         <v>2106.5920000000001</v>
       </c>
@@ -8136,19 +8144,19 @@
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="17">
         <f>B16</f>
         <v>439.26900806130499</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="17">
         <f t="shared" ref="K3:M3" si="1">C16</f>
         <v>1002.46947252642</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="17">
         <f t="shared" si="1"/>
         <v>12301.566486314299</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="17">
         <f t="shared" si="1"/>
         <v>1973.279</v>
       </c>
@@ -8172,19 +8180,19 @@
       <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="17">
         <f>B25</f>
         <v>422.36009376121001</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="17">
         <f t="shared" ref="K4:M4" si="2">C25</f>
         <v>875.419806000226</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="17">
         <f t="shared" si="2"/>
         <v>13698.438032284101</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="17">
         <f t="shared" si="2"/>
         <v>1728.91266666666</v>
       </c>
@@ -8549,16 +8557,17 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E26"/>
+      <selection activeCell="J1" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1"/>
     <col min="2" max="5" width="11.7109375" style="6"/>
-    <col min="6" max="11" width="11.7109375" style="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="11.7109375" style="1"/>
+    <col min="10" max="11" width="11.7109375" style="13"/>
+    <col min="12" max="12" width="14.42578125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="13" customWidth="1"/>
     <col min="14" max="16384" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -8585,16 +8594,16 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8617,19 +8626,19 @@
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="17">
         <f>B7</f>
         <v>529.47779347308801</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="17">
         <f t="shared" ref="K2:M2" si="0">C7</f>
         <v>5503.3596054340096</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="17">
         <f t="shared" si="0"/>
         <v>43801.488074768102</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="17">
         <f t="shared" si="0"/>
         <v>11141.438</v>
       </c>
@@ -8653,19 +8662,19 @@
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="17">
         <f>B16</f>
         <v>481.35920375557703</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="17">
         <f t="shared" ref="K3:M3" si="1">C16</f>
         <v>5039.4916998639301</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="17">
         <f t="shared" si="1"/>
         <v>64744.373552712401</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="17">
         <f t="shared" si="1"/>
         <v>10142.013999999999</v>
       </c>
@@ -8689,19 +8698,19 @@
       <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="17">
         <f>B25</f>
         <v>466.26217261346102</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="17">
         <f t="shared" ref="K4:M4" si="2">C25</f>
         <v>4390.0181716589104</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="17">
         <f>D25</f>
         <v>72305.979875253499</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="17">
         <f t="shared" si="2"/>
         <v>8827.1</v>
       </c>
@@ -9082,8 +9091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9BD7B6-8B3E-4B31-9804-51106A7558B9}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9093,10 +9102,11 @@
     <col min="3" max="3" width="15.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="11.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="13"/>
+    <col min="11" max="11" width="11.28515625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="13" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -9123,16 +9133,16 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9155,19 +9165,19 @@
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="17">
         <f>B7</f>
         <v>541.80053329065504</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="17">
         <f t="shared" ref="K2:M2" si="0">C7</f>
         <v>9857.9421490467503</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="17">
         <f t="shared" si="0"/>
         <v>80207.062474892999</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="17">
         <f t="shared" si="0"/>
         <v>20482.263999999999</v>
       </c>
@@ -9191,19 +9201,19 @@
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="17">
         <f>B16</f>
         <v>498.36948231196402</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="17">
         <f t="shared" ref="K3:M3" si="1">C16</f>
         <v>9654.0992526213304</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="17">
         <f t="shared" si="1"/>
         <v>129544.06350416401</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="17">
         <f t="shared" si="1"/>
         <v>19781.967000000001</v>
       </c>
@@ -9227,19 +9237,19 @@
       <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="17">
         <f>B25</f>
         <v>491.23837130987198</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="17">
         <f t="shared" ref="K4:M4" si="2">C25</f>
         <v>8582.8222956240697</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="17">
         <f>D25</f>
         <v>148623.55034000499</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="17">
         <f t="shared" si="2"/>
         <v>17647.304</v>
       </c>

--- a/results/190404/fcfs/results/final view/shorestDis.xlsx
+++ b/results/190404/fcfs/results/final view/shorestDis.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RAWSim-O\results\190404\fcfs\results\final view\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B7FB7-B525-41E4-B1AE-D4ABB2AD75F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B45C8-10BF-4E06-8248-E076F7DFD512}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{0F71FF03-5D3D-4028-A75F-3B0EA75FAB49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F71FF03-5D3D-4028-A75F-3B0EA75FAB49}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sum" sheetId="10" r:id="rId1"/>
-    <sheet name="Order5" sheetId="5" r:id="rId2"/>
-    <sheet name="Order50" sheetId="4" r:id="rId3"/>
-    <sheet name="O100" sheetId="8" r:id="rId4"/>
-    <sheet name="Order500" sheetId="6" r:id="rId5"/>
-    <sheet name="Order1000" sheetId="1" r:id="rId6"/>
+    <sheet name="Sum (2)" sheetId="11" r:id="rId1"/>
+    <sheet name="Sum" sheetId="10" r:id="rId2"/>
+    <sheet name="Order5" sheetId="5" r:id="rId3"/>
+    <sheet name="Order50" sheetId="4" r:id="rId4"/>
+    <sheet name="O100" sheetId="8" r:id="rId5"/>
+    <sheet name="Order500" sheetId="6" r:id="rId6"/>
+    <sheet name="Order1000" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="20">
   <si>
     <t>Avg Turnover</t>
   </si>
@@ -156,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,12 +198,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6467,11 +6462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1717274D-1603-4D0B-8F44-BBFDE5F24B21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659ACEB5-E35A-46AB-BEB4-5723251F30C0}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6569,20 +6564,20 @@
         <v>50</v>
       </c>
       <c r="B3" s="12">
-        <f>Order50!J3</f>
-        <v>382.53804528165</v>
+        <f>Order50!J2</f>
+        <v>386.98828661566398</v>
       </c>
       <c r="C3" s="12">
-        <f>Order50!K3</f>
-        <v>493.28913554612899</v>
+        <f>Order50!K2</f>
+        <v>497.25821296836398</v>
       </c>
       <c r="D3" s="12">
-        <f>Order50!L3</f>
-        <v>6023.8670019378997</v>
+        <f>Order50!L2</f>
+        <v>3512.4483203848999</v>
       </c>
       <c r="E3" s="12">
-        <f>Order50!M3</f>
-        <v>994.62800000000004</v>
+        <f>Order50!M2</f>
+        <v>1005.236</v>
       </c>
       <c r="I3" s="9">
         <v>50</v>
@@ -6918,6 +6913,457 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1717274D-1603-4D0B-8F44-BBFDE5F24B21}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="15"/>
+    <col min="3" max="3" width="11.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12" style="15" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12">
+        <f>Order5!J2</f>
+        <v>76.941407019009304</v>
+      </c>
+      <c r="C2" s="12">
+        <f>Order5!K2</f>
+        <v>76.945183158937198</v>
+      </c>
+      <c r="D2" s="12">
+        <f>Order5!L2</f>
+        <v>185.802142855169</v>
+      </c>
+      <c r="E2" s="12">
+        <f>Order5!M2</f>
+        <v>364.27800000000002</v>
+      </c>
+      <c r="I2" s="9">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12">
+        <f>Order5!J4</f>
+        <v>78.1596979384218</v>
+      </c>
+      <c r="K2" s="12">
+        <f>Order5!K4</f>
+        <v>78.164332585625104</v>
+      </c>
+      <c r="L2" s="12">
+        <f>Order5!L4</f>
+        <v>169.97246785164299</v>
+      </c>
+      <c r="M2" s="12">
+        <f>Order5!M4</f>
+        <v>360.844666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>50</v>
+      </c>
+      <c r="B3" s="12">
+        <f>Order50!J3</f>
+        <v>382.53804528165</v>
+      </c>
+      <c r="C3" s="12">
+        <f>Order50!K3</f>
+        <v>493.28913554612899</v>
+      </c>
+      <c r="D3" s="12">
+        <f>Order50!L3</f>
+        <v>6023.8670019378997</v>
+      </c>
+      <c r="E3" s="12">
+        <f>Order50!M3</f>
+        <v>994.62800000000004</v>
+      </c>
+      <c r="I3" s="9">
+        <v>50</v>
+      </c>
+      <c r="J3" s="12">
+        <f>Order50!J4</f>
+        <v>354.25462920138398</v>
+      </c>
+      <c r="K3" s="12">
+        <f>Order50!K4</f>
+        <v>428.83557489486202</v>
+      </c>
+      <c r="L3" s="12">
+        <f>Order50!L4</f>
+        <v>6796.5317913182898</v>
+      </c>
+      <c r="M3" s="12">
+        <f>Order50!M4</f>
+        <v>897.32933333333301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>100</v>
+      </c>
+      <c r="B4" s="12">
+        <f>'O100'!J2</f>
+        <v>467.69467208049201</v>
+      </c>
+      <c r="C4" s="12">
+        <f>'O100'!K2</f>
+        <v>1057.38544160621</v>
+      </c>
+      <c r="D4" s="12">
+        <f>'O100'!L2</f>
+        <v>7832.5995440303996</v>
+      </c>
+      <c r="E4" s="12">
+        <f>'O100'!M2</f>
+        <v>2106.5920000000001</v>
+      </c>
+      <c r="I4" s="9">
+        <v>100</v>
+      </c>
+      <c r="J4" s="12">
+        <f>'O100'!J4</f>
+        <v>422.36009376121001</v>
+      </c>
+      <c r="K4" s="12">
+        <f>'O100'!K4</f>
+        <v>875.419806000226</v>
+      </c>
+      <c r="L4" s="12">
+        <f>'O100'!L4</f>
+        <v>13698.438032284101</v>
+      </c>
+      <c r="M4" s="12">
+        <f>'O100'!M4</f>
+        <v>1728.91266666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>500</v>
+      </c>
+      <c r="B5" s="15">
+        <f>Order500!J2</f>
+        <v>529.47779347308801</v>
+      </c>
+      <c r="C5" s="15">
+        <f>Order500!K2</f>
+        <v>5503.3596054340096</v>
+      </c>
+      <c r="D5" s="15">
+        <f>Order500!L2</f>
+        <v>43801.488074768102</v>
+      </c>
+      <c r="E5" s="15">
+        <f>Order500!M2</f>
+        <v>11141.438</v>
+      </c>
+      <c r="I5" s="10">
+        <v>500</v>
+      </c>
+      <c r="J5" s="15">
+        <f>Order500!J4</f>
+        <v>466.26217261346102</v>
+      </c>
+      <c r="K5" s="15">
+        <f>Order500!K4</f>
+        <v>4390.0181716589104</v>
+      </c>
+      <c r="L5" s="15">
+        <f>Order500!L4</f>
+        <v>72305.979875253499</v>
+      </c>
+      <c r="M5" s="15">
+        <f>Order500!M4</f>
+        <v>8827.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="15">
+        <f>Order1000!J2</f>
+        <v>541.80053329065504</v>
+      </c>
+      <c r="C6" s="15">
+        <f>Order1000!K2</f>
+        <v>9857.9421490467503</v>
+      </c>
+      <c r="D6" s="15">
+        <f>Order1000!L2</f>
+        <v>80207.062474892999</v>
+      </c>
+      <c r="E6" s="15">
+        <f>Order1000!M2</f>
+        <v>20482.263999999999</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="15">
+        <f>Order1000!J4</f>
+        <v>491.23837130987198</v>
+      </c>
+      <c r="K6" s="15">
+        <f>Order1000!K4</f>
+        <v>8582.8222956240697</v>
+      </c>
+      <c r="L6" s="15">
+        <f>Order1000!L4</f>
+        <v>148623.55034000499</v>
+      </c>
+      <c r="M6" s="15">
+        <f>Order1000!M4</f>
+        <v>17647.304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="12">
+        <f>Order5!J3</f>
+        <v>78.502868048883997</v>
+      </c>
+      <c r="C11" s="12">
+        <f>Order5!K3</f>
+        <v>78.507898734144504</v>
+      </c>
+      <c r="D11" s="12">
+        <f>Order5!L3</f>
+        <v>182.555287867126</v>
+      </c>
+      <c r="E11" s="12">
+        <f>Order5!M3</f>
+        <v>363.19299999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>50</v>
+      </c>
+      <c r="B12" s="12">
+        <f>Order50!J3</f>
+        <v>382.53804528165</v>
+      </c>
+      <c r="C12" s="12">
+        <f>Order50!K3</f>
+        <v>493.28913554612899</v>
+      </c>
+      <c r="D12" s="12">
+        <f>Order50!L3</f>
+        <v>6023.8670019378997</v>
+      </c>
+      <c r="E12" s="12">
+        <f>Order50!M3</f>
+        <v>994.62800000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>100</v>
+      </c>
+      <c r="B13" s="12">
+        <f>'O100'!J3</f>
+        <v>439.26900806130499</v>
+      </c>
+      <c r="C13" s="12">
+        <f>'O100'!K3</f>
+        <v>1002.46947252642</v>
+      </c>
+      <c r="D13" s="12">
+        <f>'O100'!L3</f>
+        <v>12301.566486314299</v>
+      </c>
+      <c r="E13" s="12">
+        <f>'O100'!M3</f>
+        <v>1973.279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>500</v>
+      </c>
+      <c r="B14" s="15">
+        <f>Order500!J3</f>
+        <v>481.35920375557703</v>
+      </c>
+      <c r="C14" s="15">
+        <f>Order500!K3</f>
+        <v>5039.4916998639301</v>
+      </c>
+      <c r="D14" s="15">
+        <f>Order500!L3</f>
+        <v>64744.373552712401</v>
+      </c>
+      <c r="E14" s="15">
+        <f>Order500!M3</f>
+        <v>10142.013999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>1000</v>
+      </c>
+      <c r="B15" s="15">
+        <f>Order1000!J3</f>
+        <v>498.36948231196402</v>
+      </c>
+      <c r="C15" s="15">
+        <f>Order1000!K3</f>
+        <v>9654.0992526213304</v>
+      </c>
+      <c r="D15" s="15">
+        <f>Order1000!L3</f>
+        <v>129544.06350416401</v>
+      </c>
+      <c r="E15" s="15">
+        <f>Order1000!M3</f>
+        <v>19781.967000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B86E219-AD03-483F-882B-0DA456A7C5AF}">
   <dimension ref="A1:M32"/>
   <sheetViews>
@@ -7491,7 +7937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750783EA-E8ED-404B-A3EF-92CBA14F4A7F}">
   <dimension ref="A1:M32"/>
   <sheetViews>
@@ -7536,16 +7982,16 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7568,19 +8014,19 @@
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="12">
         <f>B7</f>
         <v>386.98828661566398</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="12">
         <f t="shared" ref="K2:M2" si="0">C7</f>
         <v>497.25821296836398</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="12">
         <f t="shared" si="0"/>
         <v>3512.4483203848999</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="12">
         <f t="shared" si="0"/>
         <v>1005.236</v>
       </c>
@@ -7604,19 +8050,19 @@
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="12">
         <f>B16</f>
         <v>382.53804528165</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="12">
         <f t="shared" ref="K3:M3" si="1">C16</f>
         <v>493.28913554612899</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="12">
         <f t="shared" si="1"/>
         <v>6023.8670019378997</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="12">
         <f t="shared" si="1"/>
         <v>994.62800000000004</v>
       </c>
@@ -7640,19 +8086,19 @@
       <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="12">
         <f>B25</f>
         <v>354.25462920138398</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="12">
         <f t="shared" ref="K4:M4" si="2">C25</f>
         <v>428.83557489486202</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="12">
         <f>D25</f>
         <v>6796.5317913182898</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="12">
         <f t="shared" si="2"/>
         <v>897.32933333333301</v>
       </c>
@@ -8029,7 +8475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5E0593-E34C-4F8A-B96C-2C32E678FE2E}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -8076,16 +8522,16 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8108,19 +8554,19 @@
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="12">
         <f>B7</f>
         <v>467.69467208049201</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="12">
         <f t="shared" ref="K2:M2" si="0">C7</f>
         <v>1057.38544160621</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="12">
         <f t="shared" si="0"/>
         <v>7832.5995440303996</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="12">
         <f t="shared" si="0"/>
         <v>2106.5920000000001</v>
       </c>
@@ -8144,19 +8590,19 @@
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="12">
         <f>B16</f>
         <v>439.26900806130499</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="12">
         <f t="shared" ref="K3:M3" si="1">C16</f>
         <v>1002.46947252642</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="12">
         <f t="shared" si="1"/>
         <v>12301.566486314299</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="12">
         <f t="shared" si="1"/>
         <v>1973.279</v>
       </c>
@@ -8180,19 +8626,19 @@
       <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="12">
         <f>B25</f>
         <v>422.36009376121001</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="12">
         <f t="shared" ref="K4:M4" si="2">C25</f>
         <v>875.419806000226</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="12">
         <f t="shared" si="2"/>
         <v>13698.438032284101</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="12">
         <f t="shared" si="2"/>
         <v>1728.91266666666</v>
       </c>
@@ -8552,7 +8998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C421C0C8-C45A-4263-B725-137251496AC6}">
   <dimension ref="A1:M32"/>
   <sheetViews>
@@ -8594,16 +9040,16 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8626,19 +9072,19 @@
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="12">
         <f>B7</f>
         <v>529.47779347308801</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="12">
         <f t="shared" ref="K2:M2" si="0">C7</f>
         <v>5503.3596054340096</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="12">
         <f t="shared" si="0"/>
         <v>43801.488074768102</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="12">
         <f t="shared" si="0"/>
         <v>11141.438</v>
       </c>
@@ -8662,19 +9108,19 @@
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="12">
         <f>B16</f>
         <v>481.35920375557703</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="12">
         <f t="shared" ref="K3:M3" si="1">C16</f>
         <v>5039.4916998639301</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="12">
         <f t="shared" si="1"/>
         <v>64744.373552712401</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="12">
         <f t="shared" si="1"/>
         <v>10142.013999999999</v>
       </c>
@@ -8698,19 +9144,19 @@
       <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="12">
         <f>B25</f>
         <v>466.26217261346102</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="12">
         <f t="shared" ref="K4:M4" si="2">C25</f>
         <v>4390.0181716589104</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="12">
         <f>D25</f>
         <v>72305.979875253499</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="12">
         <f t="shared" si="2"/>
         <v>8827.1</v>
       </c>
@@ -9087,11 +9533,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9BD7B6-8B3E-4B31-9804-51106A7558B9}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -9133,16 +9579,16 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9165,19 +9611,19 @@
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="12">
         <f>B7</f>
         <v>541.80053329065504</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="12">
         <f t="shared" ref="K2:M2" si="0">C7</f>
         <v>9857.9421490467503</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="12">
         <f t="shared" si="0"/>
         <v>80207.062474892999</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="12">
         <f t="shared" si="0"/>
         <v>20482.263999999999</v>
       </c>
@@ -9201,19 +9647,19 @@
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="12">
         <f>B16</f>
         <v>498.36948231196402</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="12">
         <f t="shared" ref="K3:M3" si="1">C16</f>
         <v>9654.0992526213304</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="12">
         <f t="shared" si="1"/>
         <v>129544.06350416401</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="12">
         <f t="shared" si="1"/>
         <v>19781.967000000001</v>
       </c>
@@ -9237,19 +9683,19 @@
       <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="12">
         <f>B25</f>
         <v>491.23837130987198</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="12">
         <f t="shared" ref="K4:M4" si="2">C25</f>
         <v>8582.8222956240697</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="12">
         <f>D25</f>
         <v>148623.55034000499</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="12">
         <f t="shared" si="2"/>
         <v>17647.304</v>
       </c>
